--- a/Schedule/仕様書概要.xlsx
+++ b/Schedule/仕様書概要.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSP041\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamD\TeamD\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>チームD仕様書</t>
     <rPh sb="4" eb="7">
@@ -320,6 +320,20 @@
   </si>
   <si>
     <t>カメラについてです</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>高橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -757,6 +771,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,81 +856,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1139,365 +1153,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17" t="s">
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="32">
         <v>44120</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="21">
         <v>44120</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="21">
         <v>44120</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="21">
         <v>44120</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <v>44120</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="21">
         <v>44120</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="21">
         <v>44120</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="21">
         <v>44120</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="21">
         <v>44120</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <v>44120</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="38" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="21">
         <v>44120</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="21">
         <v>44120</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="38" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="21">
         <v>44120</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="21">
         <v>44120</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <v>44120</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="38">
         <v>44120</v>
       </c>
-      <c r="F20" s="34"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="8"/>
@@ -2120,25 +2138,11 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="B8:C16"/>
     <mergeCell ref="B17:C20"/>
     <mergeCell ref="E5:F5"/>
@@ -2155,11 +2159,25 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
